--- a/data/trans_bre/IP19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Habitat-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>178,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-51,01%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>519,97%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,19</t>
+          <t>0,0; 25,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,2</t>
+          <t>0,0; 23,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 131,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-62,87%</t>
+          <t>178,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-51,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>519,97%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,82</t>
+          <t>-0,7; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,6</t>
+          <t>-5,76; 1,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 5,22</t>
+          <t>0,49; 6,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 131,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,22 +844,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>85,71%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 2,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,31</t>
+          <t>1,76; 11,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,43</t>
+          <t>-2,02; 4,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,22 +924,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>-62,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>75,27%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,81</t>
+          <t>-5,24; 1,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 11,01</t>
+          <t>0,8; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,25</t>
+          <t>-1,8; 5,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">

--- a/data/trans_bre/IP19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,31</t>
+          <t>0,0; 26,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,43</t>
+          <t>0,0; 23,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 1,34</t>
+          <t>-7,49; 1,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -0,16</t>
+          <t>-11,43; -0,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,88</t>
+          <t>-1,23; 3,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 1,19</t>
+          <t>-5,74; 1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,2</t>
+          <t>0,54; 6,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 131,54</t>
+          <t>-100,0; 105,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,81</t>
+          <t>-1,65; 3,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 11,01</t>
+          <t>1,54; 9,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,25</t>
+          <t>-2,12; 3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,82</t>
+          <t>-5,03; 1,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,6</t>
+          <t>0,81; 7,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 5,22</t>
+          <t>-1,45; 5,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1042,32 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,13</t>
+          <t>-1,32; 1,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,9</t>
+          <t>-0,78; 2,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,59</t>
+          <t>-0,81; 2,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,22; 309,13</t>
+          <t>-84,07; 346,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 396,35</t>
+          <t>-38,52; 301,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 297,13</t>
+          <t>-39,98; 339,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,2</t>
+          <t>0,0; 24,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,15</t>
+          <t>0,0; 26,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 1,45</t>
+          <t>-7,19; 1,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -0,19</t>
+          <t>-11,24; -0,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,44</t>
+          <t>-0,75; 3,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 1,17</t>
+          <t>-5,24; 1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,57</t>
+          <t>0,57; 6,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 105,72</t>
+          <t>-100,0; 116,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,64</t>
+          <t>-1,66; 2,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 9,84</t>
+          <t>1,51; 10,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,75</t>
+          <t>-2,07; 3,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 1,79</t>
+          <t>-5,19; 1,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 7,92</t>
+          <t>0,8; 8,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 5,17</t>
+          <t>-2,03; 5,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,09</t>
+          <t>-1,23; 1,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,82</t>
+          <t>-0,76; 2,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,8</t>
+          <t>-0,95; 2,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-84,07; 346,82</t>
+          <t>-81,5; 302,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 301,72</t>
+          <t>-36,68; 325,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,98; 339,52</t>
+          <t>-42,23; 298,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C05-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-31,34%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-57,81%</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,7</t>
+          <t>-5,93; 3,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,06</t>
+          <t>-8,79; 1,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-66,2%</t>
+          <t>-51,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-78,9%</t>
+          <t>519,97%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 3,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 1,51</t>
+          <t>-5,76; 1,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,24; -0,09</t>
+          <t>0,49; 6,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 131,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>178,6%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-51,01%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>519,97%</t>
+          <t>85,71%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,51</t>
+          <t>-1,66; 2,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 1,17</t>
+          <t>1,76; 11,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,93</t>
+          <t>-2,02; 4,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,22 +844,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>-62,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>75,27%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,84</t>
+          <t>-5,24; 1,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 10,28</t>
+          <t>0,8; 7,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 3,79</t>
+          <t>-1,8; 5,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-62,87%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>54,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>50,17%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 1,1</t>
+          <t>-1,24; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 8,13</t>
+          <t>-0,74; 2,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 5,24</t>
+          <t>-0,79; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,22; 309,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,86; 396,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,01; 297,13</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,16%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>54,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>50,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 1,14</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 2,76</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 2,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-81,5; 302,84</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-36,68; 325,62</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-42,23; 298,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
